--- a/resources/ExcelFiles/9006map1.txt_hom&x_FTMF.xlsx
+++ b/resources/ExcelFiles/9006map1.txt_hom&x_FTMF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Consumption of silicon steels(m)</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cost time(second)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,6 +460,9 @@
       <c r="C2" t="n">
         <v>1.477064192141241</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.6681869029998779</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -466,6 +474,9 @@
       <c r="C3" t="n">
         <v>1.149769828709647</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.519207239151001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -477,6 +488,9 @@
       <c r="C4" t="n">
         <v>1.003791773111933</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.4646458625793457</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -488,6 +502,9 @@
       <c r="C5" t="n">
         <v>0.9157092082292735</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.4874000549316406</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -499,6 +516,9 @@
       <c r="C6" t="n">
         <v>0.8505376962835687</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.4784500598907471</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -510,6 +530,9 @@
       <c r="C7" t="n">
         <v>0.8052662841774442</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.4474098682403564</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -521,6 +544,9 @@
       <c r="C8" t="n">
         <v>0.7713075442033064</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.4266300201416016</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -532,6 +558,9 @@
       <c r="C9" t="n">
         <v>0.7455725449225282</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.3902649879455566</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -543,6 +572,9 @@
       <c r="C10" t="n">
         <v>0.7274388436904569</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.3430130481719971</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -554,6 +586,9 @@
       <c r="C11" t="n">
         <v>0.7124785905299634</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.3902461528778076</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -565,6 +600,9 @@
       <c r="C12" t="n">
         <v>0.7007072726756562</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.3680851459503174</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -576,6 +614,9 @@
       <c r="C13" t="n">
         <v>0.6901427099253195</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3256666660308838</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -587,6 +628,9 @@
       <c r="C14" t="n">
         <v>0.680087897927848</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.3483409881591797</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -598,6 +642,9 @@
       <c r="C15" t="n">
         <v>0.6707323892916859</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.3552560806274414</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -609,6 +656,9 @@
       <c r="C16" t="n">
         <v>0.6617389960603667</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.3446221351623535</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -620,6 +670,9 @@
       <c r="C17" t="n">
         <v>0.6532539165509074</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.3654100894927979</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -631,6 +684,9 @@
       <c r="C18" t="n">
         <v>0.6449711625902306</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.3695528507232666</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -642,6 +698,9 @@
       <c r="C19" t="n">
         <v>0.6370037920445606</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.3142168521881104</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -653,6 +712,9 @@
       <c r="C20" t="n">
         <v>0.629193835217175</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.3566620349884033</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -664,6 +726,9 @@
       <c r="C21" t="n">
         <v>0.6215995489466487</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.3690378665924072</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -675,6 +740,9 @@
       <c r="C22" t="n">
         <v>0.6141524966731351</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.3766391277313232</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -686,6 +754,9 @@
       <c r="C23" t="n">
         <v>0.606860046488627</v>
       </c>
+      <c r="D23" t="n">
+        <v>0.3795099258422852</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -697,6 +768,9 @@
       <c r="C24" t="n">
         <v>0.5997385205377647</v>
       </c>
+      <c r="D24" t="n">
+        <v>0.3483681678771973</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -708,6 +782,9 @@
       <c r="C25" t="n">
         <v>0.5928802349243465</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.3391900062561035</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -719,6 +796,9 @@
       <c r="C26" t="n">
         <v>0.5861582427172419</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.3392660617828369</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -730,6 +810,9 @@
       <c r="C27" t="n">
         <v>0.5795183986390374</v>
       </c>
+      <c r="D27" t="n">
+        <v>0.3508100509643555</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -741,6 +824,9 @@
       <c r="C28" t="n">
         <v>0.5729824714574048</v>
       </c>
+      <c r="D28" t="n">
+        <v>0.3764328956604004</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -752,6 +838,9 @@
       <c r="C29" t="n">
         <v>0.5665096721312111</v>
       </c>
+      <c r="D29" t="n">
+        <v>0.425288200378418</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -763,6 +852,9 @@
       <c r="C30" t="n">
         <v>0.5602269372156994</v>
       </c>
+      <c r="D30" t="n">
+        <v>0.3397560119628906</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -774,6 +866,9 @@
       <c r="C31" t="n">
         <v>0.5541162605417074</v>
       </c>
+      <c r="D31" t="n">
+        <v>0.3195211887359619</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -785,6 +880,9 @@
       <c r="C32" t="n">
         <v>0.5480856003534473</v>
       </c>
+      <c r="D32" t="n">
+        <v>0.3261361122131348</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -796,6 +894,9 @@
       <c r="C33" t="n">
         <v>0.5421208301846145</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.3447191715240479</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -807,6 +908,9 @@
       <c r="C34" t="n">
         <v>0.5362872856669765</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.3496239185333252</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -818,6 +922,9 @@
       <c r="C35" t="n">
         <v>0.5305242638393296</v>
       </c>
+      <c r="D35" t="n">
+        <v>0.3389999866485596</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -829,6 +936,9 @@
       <c r="C36" t="n">
         <v>0.5249628620145401</v>
       </c>
+      <c r="D36" t="n">
+        <v>0.3530430793762207</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -840,6 +950,9 @@
       <c r="C37" t="n">
         <v>0.5196916032174164</v>
       </c>
+      <c r="D37" t="n">
+        <v>0.3484139442443848</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -851,6 +964,9 @@
       <c r="C38" t="n">
         <v>0.5145361764491322</v>
       </c>
+      <c r="D38" t="n">
+        <v>0.3416690826416016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -862,6 +978,9 @@
       <c r="C39" t="n">
         <v>0.509500295063637</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.3419692516326904</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -873,6 +992,9 @@
       <c r="C40" t="n">
         <v>0.5046241239618943</v>
       </c>
+      <c r="D40" t="n">
+        <v>0.3418543338775635</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -884,6 +1006,9 @@
       <c r="C41" t="n">
         <v>0.4998880306725717</v>
       </c>
+      <c r="D41" t="n">
+        <v>0.325005054473877</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -895,6 +1020,9 @@
       <c r="C42" t="n">
         <v>0.495308878418892</v>
       </c>
+      <c r="D42" t="n">
+        <v>0.3266921043395996</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -906,6 +1034,9 @@
       <c r="C43" t="n">
         <v>0.4908123775857087</v>
       </c>
+      <c r="D43" t="n">
+        <v>0.329092264175415</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -917,6 +1048,9 @@
       <c r="C44" t="n">
         <v>0.4863698470221027</v>
       </c>
+      <c r="D44" t="n">
+        <v>0.3295662403106689</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -928,6 +1062,9 @@
       <c r="C45" t="n">
         <v>0.4819788578785841</v>
       </c>
+      <c r="D45" t="n">
+        <v>0.3371939659118652</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -939,6 +1076,9 @@
       <c r="C46" t="n">
         <v>0.4776755903765699</v>
       </c>
+      <c r="D46" t="n">
+        <v>0.3496818542480469</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -950,6 +1090,9 @@
       <c r="C47" t="n">
         <v>0.4734686876467433</v>
       </c>
+      <c r="D47" t="n">
+        <v>0.2883882522583008</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -961,6 +1104,9 @@
       <c r="C48" t="n">
         <v>0.4693381522827192</v>
       </c>
+      <c r="D48" t="n">
+        <v>0.3196718692779541</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -972,6 +1118,9 @@
       <c r="C49" t="n">
         <v>0.4653180484155727</v>
       </c>
+      <c r="D49" t="n">
+        <v>0.3252341747283936</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -983,6 +1132,9 @@
       <c r="C50" t="n">
         <v>0.4614204807231772</v>
       </c>
+      <c r="D50" t="n">
+        <v>0.2956233024597168</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -994,6 +1146,9 @@
       <c r="C51" t="n">
         <v>0.4576443525887666</v>
       </c>
+      <c r="D51" t="n">
+        <v>0.304816722869873</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1005,6 +1160,9 @@
       <c r="C52" t="n">
         <v>0.4539493606649314</v>
       </c>
+      <c r="D52" t="n">
+        <v>0.2950520515441895</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1016,6 +1174,9 @@
       <c r="C53" t="n">
         <v>0.450475297563852</v>
       </c>
+      <c r="D53" t="n">
+        <v>0.2638800144195557</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1027,6 +1188,9 @@
       <c r="C54" t="n">
         <v>0.447417238038281</v>
       </c>
+      <c r="D54" t="n">
+        <v>0.2610189914703369</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1038,6 +1202,9 @@
       <c r="C55" t="n">
         <v>0.4447214607551729</v>
       </c>
+      <c r="D55" t="n">
+        <v>0.2654719352722168</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1049,6 +1216,9 @@
       <c r="C56" t="n">
         <v>0.4423511215367364</v>
       </c>
+      <c r="D56" t="n">
+        <v>0.2575750350952148</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1060,6 +1230,9 @@
       <c r="C57" t="n">
         <v>0.4400709463187603</v>
       </c>
+      <c r="D57" t="n">
+        <v>0.2501866817474365</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1071,6 +1244,9 @@
       <c r="C58" t="n">
         <v>0.4378055236646288</v>
       </c>
+      <c r="D58" t="n">
+        <v>0.2227749824523926</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1082,6 +1258,9 @@
       <c r="C59" t="n">
         <v>0.4355642067771602</v>
       </c>
+      <c r="D59" t="n">
+        <v>0.2326509952545166</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1093,6 +1272,9 @@
       <c r="C60" t="n">
         <v>0.4333663266071828</v>
       </c>
+      <c r="D60" t="n">
+        <v>0.2432749271392822</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1104,6 +1286,9 @@
       <c r="C61" t="n">
         <v>0.4312156592109259</v>
       </c>
+      <c r="D61" t="n">
+        <v>0.2383029460906982</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1115,6 +1300,9 @@
       <c r="C62" t="n">
         <v>0.4291279202342439</v>
       </c>
+      <c r="D62" t="n">
+        <v>0.2486791610717773</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1126,6 +1314,9 @@
       <c r="C63" t="n">
         <v>0.4270952930036631</v>
       </c>
+      <c r="D63" t="n">
+        <v>0.2230210304260254</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1137,6 +1328,9 @@
       <c r="C64" t="n">
         <v>0.4250825348808723</v>
       </c>
+      <c r="D64" t="n">
+        <v>0.249351978302002</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1148,6 +1342,9 @@
       <c r="C65" t="n">
         <v>0.4230911315838202</v>
       </c>
+      <c r="D65" t="n">
+        <v>0.2300536632537842</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1159,6 +1356,9 @@
       <c r="C66" t="n">
         <v>0.4211160094133393</v>
       </c>
+      <c r="D66" t="n">
+        <v>0.234673023223877</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1170,6 +1370,9 @@
       <c r="C67" t="n">
         <v>0.419199864866397</v>
       </c>
+      <c r="D67" t="n">
+        <v>0.2236170768737793</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1181,6 +1384,9 @@
       <c r="C68" t="n">
         <v>0.4173121847603814</v>
       </c>
+      <c r="D68" t="n">
+        <v>0.2338287830352783</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1192,6 +1398,9 @@
       <c r="C69" t="n">
         <v>0.415461792296266</v>
       </c>
+      <c r="D69" t="n">
+        <v>0.2322831153869629</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1203,6 +1412,9 @@
       <c r="C70" t="n">
         <v>0.4137611142194055</v>
       </c>
+      <c r="D70" t="n">
+        <v>0.2343339920043945</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1214,6 +1426,9 @@
       <c r="C71" t="n">
         <v>0.4121087714163425</v>
       </c>
+      <c r="D71" t="n">
+        <v>0.2312021255493164</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1225,6 +1440,9 @@
       <c r="C72" t="n">
         <v>0.4104814194154127</v>
       </c>
+      <c r="D72" t="n">
+        <v>0.2460579872131348</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1236,6 +1454,9 @@
       <c r="C73" t="n">
         <v>0.4088878053170028</v>
       </c>
+      <c r="D73" t="n">
+        <v>0.2672169208526611</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1247,6 +1468,9 @@
       <c r="C74" t="n">
         <v>0.4073063016458175</v>
       </c>
+      <c r="D74" t="n">
+        <v>0.2468171119689941</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1258,6 +1482,9 @@
       <c r="C75" t="n">
         <v>0.4057288348338244</v>
       </c>
+      <c r="D75" t="n">
+        <v>0.2525539398193359</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1269,6 +1496,9 @@
       <c r="C76" t="n">
         <v>0.4041668427169543</v>
       </c>
+      <c r="D76" t="n">
+        <v>0.2438399791717529</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1280,6 +1510,9 @@
       <c r="C77" t="n">
         <v>0.4026134296553343</v>
       </c>
+      <c r="D77" t="n">
+        <v>0.2487421035766602</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1291,6 +1524,9 @@
       <c r="C78" t="n">
         <v>0.4010728097527362</v>
       </c>
+      <c r="D78" t="n">
+        <v>0.2399332523345947</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1301,6 +1537,9 @@
       </c>
       <c r="C79" t="n">
         <v>0.3995971065177448</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.2297539710998535</v>
       </c>
     </row>
   </sheetData>
